--- a/spec/models/DE/Air/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMonInspectReport.xlsx
+++ b/spec/models/DE/Air/EGRVlv/EGRVlv_VDMon/EGRVlv_VDMonInspectReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03_SVN\T3\trunk\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDMon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\T3\spec\model\swCore\DE\Air\EGRVlv\EGRVlv_VDMon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF981B-D1CC-4E67-91D2-41C7A983A7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983C25F-3A2B-4C3E-948C-7BCC768B768A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>检查项目</t>
   </si>
@@ -39,6 +39,58 @@
   </si>
   <si>
     <t>检查状态</t>
+  </si>
+  <si>
+    <t>相同信号</t>
+  </si>
+  <si>
+    <t>转换公式单位</t>
+  </si>
+  <si>
+    <t>信号属性</t>
+  </si>
+  <si>
+    <t>表格与模型一致性</t>
+  </si>
+  <si>
+    <t>表格与数据一致性</t>
+  </si>
+  <si>
+    <t>信号库完善</t>
+  </si>
+  <si>
+    <t>代码生成配置</t>
+  </si>
+  <si>
+    <t>外层端口设置</t>
+  </si>
+  <si>
+    <t>SignalName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Typedef</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>DefaultValue</t>
+  </si>
+  <si>
+    <t>Root-in</t>
+  </si>
+  <si>
+    <t>浮点数检查</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,54 +277,7 @@
 如果上述检查项目全部通过的话，在 sheet:overview‘检查状态’下面打‘√’，反之，打‘X’。
 </t>
     </r>
-  </si>
-  <si>
-    <t>相同信号</t>
-  </si>
-  <si>
-    <t>转换公式单位</t>
-  </si>
-  <si>
-    <t>信号属性</t>
-  </si>
-  <si>
-    <t>表格与模型一致性</t>
-  </si>
-  <si>
-    <t>表格与数据一致性</t>
-  </si>
-  <si>
-    <t>信号库完善</t>
-  </si>
-  <si>
-    <t>代码生成配置</t>
-  </si>
-  <si>
-    <t>外层端口设置</t>
-  </si>
-  <si>
-    <t>SignalName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Typedef</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>DefaultValue</t>
-  </si>
-  <si>
-    <t>Root-in</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
@@ -282,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,14 +305,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -355,6 +352,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -384,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,23 +412,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,16 +711,16 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -717,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -727,15 +741,15 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -746,14 +760,14 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -763,14 +777,14 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -780,14 +794,14 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -797,14 +811,14 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -814,14 +828,14 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -831,14 +845,14 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -848,14 +862,14 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -865,7 +879,14 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -875,7 +896,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -885,7 +906,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -895,7 +916,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -905,7 +926,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -915,7 +936,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -925,7 +946,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -935,7 +956,7 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -945,7 +966,7 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -955,7 +976,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -965,7 +986,7 @@
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -975,7 +996,7 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -985,7 +1006,7 @@
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -995,7 +1016,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1005,7 +1026,7 @@
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1015,7 +1036,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1025,7 +1046,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1035,7 +1056,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1045,7 +1066,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1055,7 +1076,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1065,7 +1086,7 @@
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1075,7 +1096,7 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -1085,7 +1106,7 @@
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
     </row>
-    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1095,7 +1116,7 @@
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
     </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1105,7 +1126,7 @@
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -1115,7 +1136,7 @@
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -1125,7 +1146,7 @@
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
     </row>
-    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -1135,7 +1156,7 @@
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
     </row>
-    <row r="37" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -1145,7 +1166,7 @@
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -1155,7 +1176,7 @@
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
     </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -1165,7 +1186,7 @@
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
     </row>
-    <row r="40" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -1175,7 +1196,7 @@
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
     </row>
-    <row r="41" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -1185,7 +1206,7 @@
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
     </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -1195,7 +1216,7 @@
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
     </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -1205,7 +1226,7 @@
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
-    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -1215,7 +1236,7 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
     </row>
-    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -1225,7 +1246,7 @@
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -1235,7 +1256,7 @@
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
     </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -1245,7 +1266,7 @@
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
     </row>
-    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -1255,7 +1276,7 @@
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -1265,7 +1286,7 @@
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -1275,7 +1296,7 @@
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -1285,7 +1306,7 @@
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -1295,7 +1316,7 @@
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -1305,7 +1326,7 @@
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
     </row>
-    <row r="54" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -1315,7 +1336,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -1325,7 +1346,7 @@
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -1335,7 +1356,7 @@
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -1345,7 +1366,7 @@
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -1355,7 +1376,7 @@
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -1365,7 +1386,7 @@
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -1375,7 +1396,7 @@
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -1385,7 +1406,7 @@
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -1395,7 +1416,7 @@
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -1405,7 +1426,7 @@
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -1415,7 +1436,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
     </row>
-    <row r="65" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -1425,7 +1446,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
     </row>
-    <row r="66" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -1435,7 +1456,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
     </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -1445,7 +1466,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
     </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -1455,7 +1476,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
     </row>
-    <row r="69" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -1465,7 +1486,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
     </row>
-    <row r="70" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -1475,7 +1496,7 @@
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
     </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -1485,7 +1506,7 @@
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
     </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -1495,7 +1516,7 @@
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
     </row>
-    <row r="73" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -1505,7 +1526,7 @@
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
     </row>
-    <row r="74" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -1515,7 +1536,7 @@
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
     </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -1525,7 +1546,7 @@
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -1535,7 +1556,7 @@
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
-    <row r="77" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -1545,7 +1566,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -1555,7 +1576,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -1565,7 +1586,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -1575,7 +1596,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -1585,7 +1606,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -1595,7 +1616,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -1605,7 +1626,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -1615,7 +1636,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -1625,7 +1646,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -1635,7 +1656,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -1645,7 +1666,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -1655,7 +1676,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -1665,7 +1686,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -1675,7 +1696,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -1685,7 +1706,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -1695,7 +1716,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -1705,7 +1726,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:13" x14ac:dyDescent="0.2">
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -1717,12 +1738,12 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C9"/>
     <mergeCell ref="F1:M94"/>
+    <mergeCell ref="C2:C10"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1734,43 +1755,43 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1784,39 +1805,39 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1829,18 +1850,18 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="40.5" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1854,16 +1875,16 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="45.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1876,9 +1897,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1891,9 +1912,9 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>